--- a/src/nlp/data/numbersUnits.xlsx
+++ b/src/nlp/data/numbersUnits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828435E-5A8D-1646-9D5D-2E79FF23AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F3DCC-71B0-504C-B754-E762E4283C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Recorded speed was in the 330-350 rpm range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 </t>
+  </si>
+  <si>
+    <t>Weld #1, #2, #3 &amp; #5</t>
   </si>
 </sst>
 </file>
@@ -710,13 +716,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1075,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1136,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1139,7 +1144,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1155,7 +1160,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1163,7 +1168,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1171,7 +1176,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1179,7 +1184,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1187,7 +1192,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1195,7 +1200,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1203,7 +1208,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1219,7 +1224,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1227,7 +1232,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1235,7 +1240,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1243,7 +1248,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1269,6 +1274,14 @@
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1394,7 @@
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1397,7 +1410,7 @@
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1405,7 +1418,7 @@
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1413,7 +1426,7 @@
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1426,204 +1439,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>33</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
     </row>
